--- a/Assets/Excels/Games/WPG/WPGQuestion.xlsx
+++ b/Assets/Excels/Games/WPG/WPGQuestion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -112,50 +112,6 @@
     <t>ଢ଼</t>
   </si>
   <si>
-    <t>だ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>も</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ね</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ま</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>も</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>や</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゆ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぜ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>め</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>じ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ଛ</t>
   </si>
   <si>
@@ -164,6 +120,65 @@
   </si>
   <si>
     <t>two</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ଔ</t>
+  </si>
+  <si>
+    <t>ક</t>
+  </si>
+  <si>
+    <t>કૃ</t>
+  </si>
+  <si>
+    <t>ल</t>
+  </si>
+  <si>
+    <t>क</t>
+  </si>
+  <si>
+    <t>Σ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>स</t>
+  </si>
+  <si>
+    <t>ञ</t>
+  </si>
+  <si>
+    <t>Δ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>γ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ω</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ଏ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>§</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>†</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仝</t>
+  </si>
+  <si>
+    <t>ћ</t>
+  </si>
+  <si>
+    <t>∫</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -171,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +207,13 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,11 +238,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,18 +530,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -532,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -548,8 +573,8 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -557,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -565,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -573,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -581,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -589,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -597,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -605,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -613,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -621,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -629,15 +654,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -645,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -653,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -661,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">

--- a/Assets/Excels/Games/WPG/WPGQuestion.xlsx
+++ b/Assets/Excels/Games/WPG/WPGQuestion.xlsx
@@ -123,9 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ଔ</t>
-  </si>
-  <si>
     <t>ક</t>
   </si>
   <si>
@@ -179,6 +176,10 @@
   </si>
   <si>
     <t>∫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>τ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -574,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -582,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -590,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -598,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -606,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -614,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -622,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -630,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -638,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -646,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -654,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -662,7 +663,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -670,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -678,7 +679,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -686,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -694,7 +695,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -702,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/Games/WPG/WPGQuestion.xlsx
+++ b/Assets/Excels/Games/WPG/WPGQuestion.xlsx
@@ -26,89 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>か</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>き</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>し</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>せ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>た</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>て</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>と</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ଇ</t>
-  </si>
-  <si>
     <t>ଢ଼</t>
   </si>
   <si>
@@ -123,71 +40,128 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ક</t>
-  </si>
-  <si>
     <t>કૃ</t>
   </si>
   <si>
-    <t>ल</t>
-  </si>
-  <si>
     <t>क</t>
   </si>
   <si>
-    <t>Σ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>स</t>
   </si>
   <si>
     <t>ञ</t>
-  </si>
-  <si>
-    <t>Δ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>γ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ω</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ଏ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>§</t>
+    <t>ଇ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>†</t>
+    <t>ଅ</t>
+  </si>
+  <si>
+    <t>ଋ</t>
+  </si>
+  <si>
+    <t>ଌ</t>
+  </si>
+  <si>
+    <t>ଐ</t>
+  </si>
+  <si>
+    <t>ଓ</t>
+  </si>
+  <si>
+    <t>ଔ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ঙ </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仝</t>
-  </si>
-  <si>
-    <t>ћ</t>
-  </si>
-  <si>
-    <t>∫</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>τ</t>
-    <phoneticPr fontId="1"/>
+    <t>চ</t>
+  </si>
+  <si>
+    <t>ঠ</t>
+  </si>
+  <si>
+    <t>ণ</t>
+  </si>
+  <si>
+    <t>ছ</t>
+  </si>
+  <si>
+    <t>ঘ</t>
+  </si>
+  <si>
+    <t>ٻ</t>
+  </si>
+  <si>
+    <t>ځ</t>
+  </si>
+  <si>
+    <t>ڄ</t>
+  </si>
+  <si>
+    <t>ڈ</t>
+  </si>
+  <si>
+    <t>ڏ</t>
+  </si>
+  <si>
+    <t>س</t>
+  </si>
+  <si>
+    <t>ڜ</t>
+  </si>
+  <si>
+    <t>ﺹ</t>
+  </si>
+  <si>
+    <t>ط</t>
+  </si>
+  <si>
+    <t>ڟ</t>
+  </si>
+  <si>
+    <t>ع</t>
+  </si>
+  <si>
+    <t>ۼ</t>
+  </si>
+  <si>
+    <t>ڣ</t>
+  </si>
+  <si>
+    <t>ڦ</t>
+  </si>
+  <si>
+    <t>ػ</t>
+  </si>
+  <si>
+    <t>ڮ</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>ؤ</t>
+  </si>
+  <si>
+    <t>ئ</t>
+  </si>
+  <si>
+    <t>ڗ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,11 +184,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FF222222"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Aegean"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="FreeSerif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +226,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,178 +514,181 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
